--- a/roster/simple.xlsx
+++ b/roster/simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/autograding/roster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Dropbox/0_Classes/analytics/2019_fall/IntroMLShared/carme-autograder/roster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C33DE604-7358-034F-85E3-7DE7F2F576F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621DEA1-F34C-EB4E-93FF-BF50F92EFBB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14280" activeTab="1" xr2:uid="{1EFFBB38-0958-DE43-820D-3F3636858045}"/>
+    <workbookView xWindow="480" yWindow="920" windowWidth="25040" windowHeight="14280" xr2:uid="{1EFFBB38-0958-DE43-820D-3F3636858045}"/>
   </bookViews>
   <sheets>
     <sheet name="github" sheetId="1" r:id="rId1"/>
@@ -26,22 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>student_email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -134,6 +119,24 @@
   </si>
   <si>
     <t>thee</t>
+  </si>
+  <si>
+    <t>course_r</t>
+  </si>
+  <si>
+    <t>section_r</t>
+  </si>
+  <si>
+    <t>firstname_r</t>
+  </si>
+  <si>
+    <t>lastname_r</t>
+  </si>
+  <si>
+    <t>email_r</t>
+  </si>
+  <si>
+    <t>username_r</t>
   </si>
 </sst>
 </file>
@@ -488,125 +491,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44571F67-C15C-F945-8995-D16A411F2E01}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DB036-F42D-8C49-AD80-27593F80CECB}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -626,48 +629,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>99999999</v>
@@ -676,18 +679,18 @@
         <v>43723.922222222223</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>33333333</v>
@@ -696,18 +699,18 @@
         <v>43724.470833333333</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>33333333</v>
@@ -716,7 +719,7 @@
         <v>43723.48333333333</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
